--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,62 @@
   </si>
   <si>
     <t>2.完成UI需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.技能底层逻辑文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.技能需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成主界面交互设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.完成游戏结算界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提供设计的程序需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.角色建模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.角色跑动动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.击退效果实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.设备号数据库搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.“取消匹配”功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.帧同步技术实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.模型选择功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.技能效果实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.击退逻辑文档</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,10 +183,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,104 +470,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -522,6 +573,11 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -531,12 +587,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,46 @@
   </si>
   <si>
     <t>4.击退逻辑文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成登录界面交互设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.完成匹配界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成角色攻击、移动、死亡动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优化服务器代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.完成体现游戏核心玩法的游戏版本（第一版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.技能功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.策划案定稿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.特效设计与制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.音效设计与制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.迭代玩法,优化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,6 +603,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="G2:I2"/>
@@ -573,11 +618,6 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -702,10 +742,147 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
@@ -726,19 +903,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>

--- a/开发计划.xlsx
+++ b/开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>策划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,50 @@
   </si>
   <si>
     <t>3.迭代玩法,优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.视频制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.配音制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优化服务器代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.角色系统功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.实现服务器上的技能效果同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.场景原画、场景边界设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.帮助完成视频制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.血槽设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.技能、游戏图标设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.PPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.游戏登录原画</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -905,14 +949,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:F4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
